--- a/exported_data.xlsx
+++ b/exported_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>Frontend Development</t>
+  </si>
+  <si>
+    <t>84bd048a-f146-4191-99ea-5f45ebd551a3</t>
+  </si>
+  <si>
+    <t>Backend Development</t>
+  </si>
+  <si>
+    <t>ec532f97-9de7-4fb4-8b93-dff24ca4acbd</t>
+  </si>
+  <si>
+    <t>Programming</t>
   </si>
   <si>
     <t>Title</t>
@@ -460,6 +472,28 @@
         <v>45923.11935353175</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45923.16293971465</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45923.16293973214</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -476,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -487,13 +521,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>45923.1193507086</v>
@@ -501,13 +535,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>45923.11935072694</v>
@@ -515,13 +549,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>45923.119350732595</v>
@@ -529,13 +563,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1">
         <v>45923.11935073746</v>
@@ -543,13 +577,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1">
         <v>45923.11935074234</v>
